--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
   <si>
     <t>Résultat</t>
   </si>
@@ -64,18 +64,18 @@
     <t>element</t>
   </si>
   <si>
-    <t>-smile</t>
-  </si>
-  <si>
     <t>Jenkins T5</t>
   </si>
   <si>
-    <t>-noExistElement</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>noExistElement</t>
+  </si>
+  <si>
     <t>Succès</t>
   </si>
   <si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Échec : Accès à l'action « no exist element » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible de s'authentifier avec les informations fournies.</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +136,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -143,6 +151,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -153,6 +166,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -163,6 +181,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -173,6 +196,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -183,6 +211,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -193,6 +226,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -203,6 +241,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -213,222 +256,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -469,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -510,41 +338,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +647,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -897,12 +690,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12">
         <v>43846</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="37" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3"/>
@@ -918,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="38" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
@@ -937,10 +730,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4"/>
@@ -956,17 +749,17 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="37" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
@@ -975,10 +768,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="38" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Résultat</t>
   </si>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -297,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -338,6 +353,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +713,7 @@
       <c r="E2" s="12">
         <v>43846</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3"/>
@@ -714,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3"/>
@@ -733,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4"/>
@@ -752,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3"/>
@@ -771,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="41" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Résultat</t>
   </si>
@@ -74,29 +74,13 @@
   </si>
   <si>
     <t>noExistElement</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : The city is Paris!!</t>
-  </si>
-  <si>
-    <t>Échec : Saisie « Input Select field » dans demo.</t>
-  </si>
-  <si>
-    <t>Échec : Accès à l'action « no exist element » dans demo.</t>
-  </si>
-  <si>
-    <t>Échec : Impossible de s'authentifier avec les informations fournies.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,158 +104,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -312,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,41 +160,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,16 +474,16 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,15 +516,13 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>43846</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,13 +535,11 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="41" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,13 +552,11 @@
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,13 +569,11 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,13 +586,11 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="41" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
   <si>
     <t>Résultat</t>
   </si>
@@ -74,13 +74,29 @@
   </si>
   <si>
     <t>noExistElement</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture DEMO.</t>
+  </si>
+  <si>
+    <t>Échec : The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Échec : Saisie « Input Select field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Accès à l'action « no exist element » dans demo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +127,231 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -151,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -165,6 +406,51 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +765,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,7 +808,9 @@
       <c r="E2" s="10">
         <v>43846</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,7 +827,9 @@
         <v>17</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -556,7 +846,9 @@
         <v>17</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +865,9 @@
         <v>17</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,7 +884,9 @@
         <v>18</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="56" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Résultat</t>
   </si>
@@ -76,27 +76,14 @@
     <t>noExistElement</t>
   </si>
   <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture DEMO.</t>
-  </si>
-  <si>
-    <t>Échec : The city is Paris!!</t>
-  </si>
-  <si>
-    <t>Échec : Saisie « Input Select field » dans demo.</t>
-  </si>
-  <si>
-    <t>Échec : Accès à l'action « no exist element » dans demo.</t>
+    <t>title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,238 +107,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -392,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -401,56 +158,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,22 +469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -789,10 +501,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -802,18 +517,17 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>43846</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="12"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -823,16 +537,15 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -842,16 +555,15 @@
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -861,16 +573,15 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -880,51 +591,50 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Résultat</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>Jenkins T6</t>
+  </si>
+  <si>
+    <t>Jenkins T7</t>
   </si>
 </sst>
 </file>
@@ -471,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +548,9 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="11">
+        <v>24</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,7 +568,9 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11">
+        <v>18</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,15 +606,43 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -83,13 +83,16 @@
   </si>
   <si>
     <t>Jenkins T7</t>
+  </si>
+  <si>
+    <t>Jenkins T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -164,11 +172,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +487,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,14 +532,14 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>43846</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,14 +552,12 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11">
-        <v>24</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -563,14 +570,12 @@
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11">
-        <v>18</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,12 +588,12 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,14 +606,12 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
-        <v>29</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -618,14 +621,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -637,16 +638,25 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
-        <v>3</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="44">
   <si>
     <t>Résultat</t>
   </si>
@@ -86,13 +86,77 @@
   </si>
   <si>
     <t>Jenkins T8</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>Échec : The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Échec : Saisie « Input Select field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Accès à l'action « no exist element » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : La donnée « city » fournie ne peut pas être vide.</t>
+  </si>
+  <si>
+    <t>Échec : La donnée « element » fournie ne peut pas être vide, la donnée « element2 » fournie ne peut pas être vide.</t>
+  </si>
+  <si>
+    <t>Échec : Absence « -input_text_field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible de s'authentifier avec les informations fournies.</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture DEMO.</t>
+  </si>
+  <si>
+    <t>Échec : Accès à l'action « link a html balise with onclick by js (smile) » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Message « OK » non trouvé sur l'alerte.</t>
+  </si>
+  <si>
+    <t>Échec : La valeur du champ « -input_text_field » n'est pas celle attendue (Jenkins T3) dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Saisie « -input_text_field » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : La valeur du champ « -input_text_field » n'est pas celle attendue (01234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789) dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Le format de la date  du champ « input_text_field » n'est pas valide.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible d'évaluer le xpath: « .//*[@name=\'smilejs\' and @title=\'smilejs2\'] » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : La valeur du champ « -input_current_date » n'est pas celle attendue (1) dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Accès à l'action « link a html balise with onclick by js (smilejs) » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : Impossible d'évaluer le xpath: « .//*[@name=\'smilejs\' and @title=\'smilejs\'] » dans demo.</t>
+  </si>
+  <si>
+    <t>Échec : La valeur du champ « -input_current_date » n'est pas celle attendue (0) dans demo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +187,1536 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -163,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -178,6 +1772,312 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,11 +2392,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,8 +2438,12 @@
       <c r="E2" s="10">
         <v>43846</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="11"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="317" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -557,7 +2461,9 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="318" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,7 +2481,9 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="318" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,8 +2500,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="11"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="317" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,7 +2523,9 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="318" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -626,7 +2540,9 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="318" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -641,7 +2557,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="318" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -655,8 +2573,12 @@
         <v>17</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="13"/>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="318" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="51">
   <si>
     <t>Résultat</t>
   </si>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Échec : La valeur du champ « -input_current_date » n'est pas celle attendue (0) dans demo.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in demo. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« no exist element Â» in demo. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« city Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« element Â» cannot be empty. /!\, /!\ The provided data Â« element2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
+    <t>Fail: /!\ No value for Â« -input_text_field Â» in demo. /!\</t>
   </si>
 </sst>
 </file>
@@ -156,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="314" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +208,81 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1770,338 +1866,353 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="338">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="248" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -2120,10 +2231,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2281,7 +2392,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2290,13 +2401,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2306,7 +2417,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2315,7 +2426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2324,7 +2435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2334,12 +2445,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2370,7 +2481,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2389,7 +2500,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2401,8 +2512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G9"/>
@@ -2459,8 +2570,8 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="320" t="s">
-        <v>23</v>
+      <c r="G2" s="335" t="s">
+        <v>44</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2479,8 +2590,8 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="321" t="s">
-        <v>25</v>
+      <c r="G3" s="336" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2499,8 +2610,8 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="321" t="s">
-        <v>26</v>
+      <c r="G4" s="336" t="s">
+        <v>46</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2521,8 +2632,8 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="320" t="s">
-        <v>23</v>
+      <c r="G5" s="335" t="s">
+        <v>44</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -2541,8 +2652,8 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="321" t="s">
-        <v>27</v>
+      <c r="G6" s="336" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,8 +2669,8 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="321" t="s">
-        <v>28</v>
+      <c r="G7" s="336" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,8 +2686,8 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="321" t="s">
-        <v>29</v>
+      <c r="G8" s="336" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,8 +2705,8 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="321" t="s">
-        <v>30</v>
+      <c r="G9" s="336" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,7 +2834,7 @@
       <c r="A47" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="58">
   <si>
     <t>Résultat</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>Fail: /!\ No value for Â« -input_text_field Â» in demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Message « OK » non trouvé sur la popup d'alerte. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Saisie « Input Select field » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « city » fournie ne peut pas être vide. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « element » fournie ne peut pas être vide. /!\, /!\ La donnée « element2 » fournie ne peut pas être vide. /!\.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Ouverture de la page DEMO. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Accès à l'action « no exist element » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Absence « -input_text_field » dans demo. /!\</t>
   </si>
 </sst>
 </file>
@@ -177,7 +198,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="374" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +229,231 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1868,7 +2114,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="383">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -2204,9 +2450,54 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2570,8 +2861,8 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="335" t="s">
-        <v>44</v>
+      <c r="G2" s="380" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2590,8 +2881,8 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="336" t="s">
-        <v>45</v>
+      <c r="G3" s="381" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2610,8 +2901,8 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="336" t="s">
-        <v>46</v>
+      <c r="G4" s="381" t="s">
+        <v>52</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -2632,8 +2923,8 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="335" t="s">
-        <v>44</v>
+      <c r="G5" s="380" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -2652,8 +2943,8 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="336" t="s">
-        <v>47</v>
+      <c r="G6" s="381" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,8 +2960,8 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="336" t="s">
-        <v>48</v>
+      <c r="G7" s="381" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,8 +2977,8 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="336" t="s">
-        <v>49</v>
+      <c r="G8" s="381" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2705,8 +2996,8 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="336" t="s">
-        <v>50</v>
+      <c r="G9" s="381" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
+    <sheet name="NoraUi-hello" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Résultat</t>
   </si>
@@ -89,38 +89,13 @@
   </si>
   <si>
     <t>element2</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
-  </si>
-  <si>
-    <t>Échec : The city is Paris!!</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Saisie « Input Select field » dans demo. /!\</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Accès à l'action « no exist element » dans demo. /!\</t>
-  </si>
-  <si>
-    <t>Échec : /!\ La donnée « city » fournie ne peut pas être vide. /!\</t>
-  </si>
-  <si>
-    <t>Échec : /!\ La donnée « element » fournie ne peut pas être vide. /!\, /!\ La donnée « element2 » fournie ne peut pas être vide. /!\.</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Absence « -input_text_field » dans demo. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,21 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -184,7 +144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,33 +159,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF006058"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -245,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -283,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +364,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -415,13 +373,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -431,7 +389,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -440,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -459,12 +417,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -495,7 +453,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -514,7 +472,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -526,39 +484,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="5" max="7" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -578,66 +536,62 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10">
         <v>43846</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>28</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14" t="s">
-        <v>27</v>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>22</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -651,101 +605,95 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14" t="s">
-        <v>29</v>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="14" t="s">
-        <v>30</v>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>31</v>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,7 +821,7 @@
       <c r="A47" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
-    <t>Résultat</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>element2</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,45 +502,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10">
         <v>43846</v>
@@ -551,19 +551,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -574,19 +574,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -597,19 +597,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -618,19 +618,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -640,17 +640,17 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -660,13 +660,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -678,17 +678,17 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -591,7 +591,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -635,7 +635,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
-    <t>Résultat</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>element2</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,45 +502,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10">
         <v>43846</v>
@@ -551,65 +551,65 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -618,39 +618,39 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -660,13 +660,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -678,22 +678,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +567,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>30</v>
-      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,9 +588,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>24</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,9 +630,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>41</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -654,9 +648,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -672,9 +664,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>4</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -692,9 +682,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>57</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-hello" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="33">
   <si>
     <t>author</t>
   </si>
@@ -89,13 +89,41 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>{"total_count":218,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
+  </si>
+  <si>
+    <t>Échec : The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Saisie « Input Select field » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Accès à l'action « no exist element » dans demo. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « city » fournie ne peut pas être vide. /!\</t>
+  </si>
+  <si>
+    <t>Échec : /!\ La donnée « element » fournie ne peut pas être vide. /!\, /!\ La donnée « element2 » fournie ne peut pas être vide. /!\.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Absence « -input_text_field » dans demo. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +149,66 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -159,28 +247,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="25">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF006058"/>
@@ -203,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -364,7 +464,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -373,13 +473,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -389,7 +489,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -398,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,12 +517,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -453,7 +553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -472,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -484,8 +584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -493,11 +593,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,8 +645,12 @@
       <c r="F2" s="10">
         <v>43846</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="6"/>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -567,7 +671,9 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,7 +694,9 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -608,8 +716,12 @@
         <v>16</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -630,7 +742,9 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -648,7 +762,9 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -664,7 +780,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -681,8 +799,12 @@
         <v>16</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -809,7 +931,7 @@
       <c r="A47" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\POC\NoraUi\src\test\resources\data\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-hello" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
+    <definedName name="Motifs">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,88 +29,86 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rennes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noExistElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenkins T8</t>
+    <t>author</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>element2</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Jenkins T1</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>Jenkins T2</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Jenkins T3</t>
+  </si>
+  <si>
+    <t>56100</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Jenkins T4</t>
+  </si>
+  <si>
+    <t>Jenkins T5</t>
+  </si>
+  <si>
+    <t>noExistElement</t>
+  </si>
+  <si>
+    <t>Jenkins T6</t>
+  </si>
+  <si>
+    <t>Jenkins T7</t>
+  </si>
+  <si>
+    <t>Jenkins T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-40C]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,22 +117,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,7 +164,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -185,85 +172,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -322,31 +251,303 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -388,14 +589,14 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>43846</v>
+      <c r="F2" s="5">
+        <v>54804</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -413,12 +614,12 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="9">
         <v>31</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -436,12 +637,12 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="9">
         <v>25</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -462,7 +663,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -480,11 +681,11 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -500,11 +701,11 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -518,11 +719,11 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -538,141 +739,136 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-hello" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t xml:space="preserve">Jenkins T8</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The value of the field Â« -input_current_date Â» is not the expected one (0) in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« city Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« element Â» cannot be empty. /!\, /!\ The provided data Â« element2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Unable to authenticate with provided credentials. /!\</t>
+  </si>
+  <si>
+    <t>{"total_count":229,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -103,10 +133,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,6 +178,51 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +252,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -186,83 +261,88 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="19">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -332,21 +412,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.57" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="true" hidden="false" style="0" width="15.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="16.28" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -389,59 +469,61 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+        <v>54804</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -458,218 +540,221 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-hello" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="34">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t xml:space="preserve">Jenkins T8</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The value of the field Â« -input_current_date Â» is not the expected one (0) in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« city Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« element Â» cannot be empty. /!\, /!\ The provided data Â« element2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Unable to authenticate with provided credentials. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Error on text data. The provided date must be greater than or equal to today. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Element not found on the page. /!\</t>
   </si>
 </sst>
 </file>
@@ -106,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,6 +178,216 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +417,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -186,83 +426,125 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="53">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -332,21 +614,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I9" activeCellId="0" pane="topLeft" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.57" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="true" hidden="false" style="0" width="15.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="16.28" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -391,11 +673,15 @@
       <c r="F2" s="5" t="n">
         <v>43846</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -413,12 +699,12 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9" t="n">
-        <v>31</v>
+      <c r="H3" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -436,12 +722,12 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="n">
-        <v>25</v>
+      <c r="H4" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -458,11 +744,15 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -480,11 +770,11 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -500,11 +790,11 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -518,11 +808,11 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -538,138 +828,138 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Fail: /!\ Element not found on the page. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Unable to upload the file Â« /home/nicolas/workspace/NoraUi/downloadFiles/test.txt Â». /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +184,111 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -450,7 +561,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="74">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -534,9 +645,30 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -676,7 +808,7 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="72" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="7"/>
@@ -699,7 +831,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="7"/>
@@ -722,7 +854,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="10"/>
@@ -747,7 +879,7 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="7"/>
@@ -770,7 +902,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="72" t="s">
         <v>28</v>
       </c>
     </row>
@@ -790,7 +922,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="72" t="s">
         <v>29</v>
       </c>
     </row>
@@ -808,7 +940,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="72" t="s">
         <v>30</v>
       </c>
     </row>
@@ -828,7 +960,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="72" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="NoraUi-hello" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
   </definedNames>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -95,36 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jenkins T8</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
-  </si>
-  <si>
-    <t>Fail: The city is Paris!!</t>
-  </si>
-  <si>
-    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ The value of the field Â« -input_current_date Â» is not the expected one (0) in bakery. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ The provided data Â« city Â» cannot be empty. /!\</t>
-  </si>
-  <si>
-    <t>Fail: /!\ The provided data Â« element Â» cannot be empty. /!\, /!\ The provided data Â« element2 Â» cannot be empty. /!\.</t>
-  </si>
-  <si>
-    <t>Fail: /!\ Unable to authenticate with provided credentials. /!\</t>
-  </si>
-  <si>
-    <t>{"total_count":229,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
-  </si>
-  <si>
-    <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -136,7 +106,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -179,51 +149,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -252,7 +177,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -261,88 +186,79 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -412,21 +328,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.57" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="7" customWidth="true" hidden="false" style="0" width="15.57" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="16.28" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -471,14 +387,10 @@
       <c r="F2" s="5" t="n">
         <v>54804</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -496,11 +408,11 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="H3" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -518,12 +430,12 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>27</v>
+      <c r="H4" s="8" t="n">
+        <v>25</v>
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -540,14 +452,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -565,11 +473,11 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="H6" s="8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -585,11 +493,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="H7" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -603,11 +511,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="H8" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -623,138 +531,138 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="H9" s="8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-hello" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoraUi-hello" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Motifs" vbProcedure="false">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -95,6 +95,45 @@
   </si>
   <si>
     <t xml:space="preserve">Jenkins T8</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail: The city is Paris!!</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« city Â» cannot be empty. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The provided data Â« element Â» cannot be empty. /!\, /!\ The provided data Â« element2 Â» cannot be empty. /!\.</t>
+  </si>
+  <si>
+    <t>Fail: /!\ The value of the field Â« -input_current_date Â» is not the expected one (0) in bakery. /!\</t>
+  </si>
+  <si>
+    <t>This is a demo for NORAUI (Non-Regression Automation for User Interfaces).</t>
+  </si>
+  <si>
+    <t>{"total_count":229,"incomplete_results":false,"items":[{"login":"ndeloof","id":132757,"node_id":"MDQ6VXNlcjEzMjc1Nw==","avatar_url":"https://avatars0.githubusercontent.com/u/132757?v=4","gravatar_id":"","url":"https://api.github.com/users/ndeloof","html_url":"https://github.com/ndeloof","followers_url":"https://api.github.com/users/ndeloof/followers","following_url":"https://api.github.com/users/ndeloof/following{/other_user}","gists_url":"https://api.github.com/users/ndeloof/gists{/gist_id}","starred_url":"https://api.github.com/users/ndeloof/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ndeloof/subscriptions","organizations_url":"https://api.github.com/users/ndeloof/orgs","repos_url":"https://api.github.com/users/ndeloof/repos","events_url":"https://api.github.com/users/ndeloof/events{/privacy}","received_events_url":"https://api.github.com/users/ndeloof/received_events","type":"User","site_admin":false,"score":1.0},{"login":"aurelhubert","id":4895410,"node_id":"MDQ6VXNlcjQ4OTU0MTA=","avatar_url":"https://avatars0.githubusercontent.com/u/4895410?v=4","gravatar_id":"","url":"https://api.github.com/users/aurelhubert","html_url":"https://github.com/aurelhubert","followers_url":"https://api.github.com/users/aurelhubert/followers","following_url":"https://api.github.com/users/aurelhubert/following{/other_user}","gists_url":"https://api.github.com/users/aurelhubert/gists{/gist_id}","starred_url":"https://api.github.com/users/aurelhubert/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/aurelhubert/subscriptions","organizations_url":"https://api.github.com/users/aurelhubert/orgs","repos_url":"https://api.github.com/users/aurelhubert/repos","events_url":"https://api.github.com/users/aurelhubert/events{/privacy}","received_events_url":"https://api.github.com/users/aurelhubert/received_events","type":"User","site_admin":false,"score":1.0},{"login":"pcmanus","id":479957,"node_id":"MDQ6VXNlcjQ3OTk1Nw==","avatar_url":"https://avatars3.githubusercontent.com/u/479957?v=4","gravatar_id":"","url":"https://api.github.com/users/pcmanus","html_url":"https://github.com/pcmanus","followers_url":"https://api.github.com/users/pcmanus/followers","following_url":"https://api.github.com/users/pcmanus/following{/other_user}","gists_url":"https://api.github.com/users/pcmanus/gists{/gist_id}","starred_url":"https://api.github.com/users/pcmanus/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/pcmanus/subscriptions","organizations_url":"https://api.github.com/users/pcmanus/orgs","repos_url":"https://api.github.com/users/pcmanus/repos","events_url":"https://api.github.com/users/pcmanus/events{/privacy}","received_events_url":"https://api.github.com/users/pcmanus/received_events","type":"User","site_admin":false,"score":1.0},{"login":"deruelle","id":54279,"node_id":"MDQ6VXNlcjU0Mjc5","avatar_url":"https://avatars3.githubusercontent.com/u/54279?v=4","gravatar_id":"","url":"https://api.github.com/users/deruelle","html_url":"https://github.com/deruelle","followers_url":"https://api.github.com/users/deruelle/followers","following_url":"https://api.github.com/users/deruelle/following{/other_user}","gists_url":"https://api.github.com/users/deruelle/gists{/gist_id}","starred_url":"https://api.github.com/users/deruelle/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/deruelle/subscriptions","organizations_url":"https://api.github.com/users/deruelle/orgs","repos_url":"https://api.github.com/users/deruelle/repos","events_url":"https://api.github.com/users/deruelle/events{/privacy}","received_events_url":"https://api.github.com/users/deruelle/received_events","type":"User","site_admin":false,"score":1.0},{"login":"barais","id":598311,"node_id":"MDQ6VXNlcjU5ODMxMQ==","avatar_url":"https://avatars1.githubusercontent.com/u/598311?v=4","gravatar_id":"","url":"https://api.github.com/users/barais","html_url":"https://github.com/barais","followers_url":"https://api.github.com/users/barais/followers","following_url":"https://api.github.com/users/barais/following{/other_user}","gists_url":"https://api.github.com/users/barais/gists{/gist_id}","starred_url":"https://api.github.com/users/barais/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/barais/subscriptions","organizations_url":"https://api.github.com/users/barais/orgs","repos_url":"https://api.github.com/users/barais/repos","events_url":"https://api.github.com/users/barais/events{/privacy}","received_events_url":"https://api.github.com/users/barais/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ybonnel","id":428232,"node_id":"MDQ6VXNlcjQyODIzMg==","avatar_url":"https://avatars1.githubusercontent.com/u/428232?v=4","gravatar_id":"","url":"https://api.github.com/users/ybonnel","html_url":"https://github.com/ybonnel","followers_url":"https://api.github.com/users/ybonnel/followers","following_url":"https://api.github.com/users/ybonnel/following{/other_user}","gists_url":"https://api.github.com/users/ybonnel/gists{/gist_id}","starred_url":"https://api.github.com/users/ybonnel/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ybonnel/subscriptions","organizations_url":"https://api.github.com/users/ybonnel/orgs","repos_url":"https://api.github.com/users/ybonnel/repos","events_url":"https://api.github.com/users/ybonnel/events{/privacy}","received_events_url":"https://api.github.com/users/ybonnel/received_events","type":"User","site_admin":false,"score":1.0},{"login":"ganfra","id":8754928,"node_id":"MDQ6VXNlcjg3NTQ5Mjg=","avatar_url":"https://avatars3.githubusercontent.com/u/8754928?v=4","gravatar_id":"","url":"https://api.github.com/users/ganfra","html_url":"https://github.com/ganfra","followers_url":"https://api.github.com/users/ganfra/followers","following_url":"https://api.github.com/users/ganfra/following{/other_user}","gists_url":"https://api.github.com/users/ganfra/gists{/gist_id}","starred_url":"https://api.github.com/users/ganfra/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/ganfra/subscriptions","organizations_url":"https://api.github.com/users/ganfra/orgs","repos_url":"https://api.github.com/users/ganfra/repos","events_url":"https://api.github.com/users/ganfra/events{/privacy}","received_events_url":"https://api.github.com/users/ganfra/received_events","type":"User","site_admin":false,"score":1.0},{"login":"Jean-Emile","id":1098811,"node_id":"MDQ6VXNlcjEwOTg4MTE=","avatar_url":"https://avatars3.githubusercontent.com/u/1098811?v=4","gravatar_id":"","url":"https://api.github.com/users/Jean-Emile","html_url":"https://github.com/Jean-Emile","followers_url":"https://api.github.com/users/Jean-Emile/followers","following_url":"https://api.github.com/users/Jean-Emile/following{/other_user}","gists_url":"https://api.github.com/users/Jean-Emile/gists{/gist_id}","starred_url":"https://api.github.com/users/Jean-Emile/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/Jean-Emile/subscriptions","organizations_url":"https://api.github.com/users/Jean-Emile/orgs","repos_url":"https://api.github.com/users/Jean-Emile/repos","events_url":"https://api.github.com/users/Jean-Emile/events{/privacy}","received_events_url":"https://api.github.com/users/Jean-Emile/received_events","type":"User","site_admin":false,"score":1.0},{"login":"arnobl","id":1052622,"node_id":"MDQ6VXNlcjEwNTI2MjI=","avatar_url":"https://avatars0.githubusercontent.com/u/1052622?v=4","gravatar_id":"","url":"https://api.github.com/users/arnobl","html_url":"https://github.com/arnobl","followers_url":"https://api.github.com/users/arnobl/followers","following_url":"https://api.github.com/users/arnobl/following{/other_user}","gists_url":"https://api.github.com/users/arnobl/gists{/gist_id}","starred_url":"https://api.github.com/users/arnobl/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/arnobl/subscriptions","organizations_url":"https://api.github.com/users/arnobl/orgs","repos_url":"https://api.github.com/users/arnobl/repos","events_url":"https://api.github.com/users/arnobl/events{/privacy}","received_events_url":"https://api.github.com/users/arnobl/received_events","type":"User","site_admin":false,"score":1.0},{"login":"acherm","id":530573,"node_id":"MDQ6VXNlcjUzMDU3Mw==","avatar_url":"https://avatars1.githubusercontent.com/u/530573?v=4","gravatar_id":"","url":"https://api.github.com/users/acherm","html_url":"https://github.com/acherm","followers_url":"https://api.github.com/users/acherm/followers","following_url":"https://api.github.com/users/acherm/following{/other_user}","gists_url":"https://api.github.com/users/acherm/gists{/gist_id}","starred_url":"https://api.github.com/users/acherm/starred{/owner}{/repo}","subscriptions_url":"https://api.github.com/users/acherm/subscriptions","organizations_url":"https://api.github.com/users/acherm/orgs","repos_url":"https://api.github.com/users/acherm/repos","events_url":"https://api.github.com/users/acherm/events{/privacy}","received_events_url":"https://api.github.com/users/acherm/received_events","type":"User","site_admin":false,"score":1.0}]}</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« no exist element Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ No value for Â« Input Text field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Typing Â« bakery.BAKERY_DEMO.Input Select field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Click on Â« bakery.BAKERY_DEMO.no exist element Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>Fail: /!\ No value for Â« bakery.BAKERY_DEMO.Input Text field Â» in bakery. /!\</t>
   </si>
 </sst>
 </file>
@@ -106,7 +145,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,6 +187,81 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +291,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -186,79 +300,94 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="25">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -328,21 +457,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.28"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="20.57" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="true" hidden="false" style="0" width="15.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="16.28" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -387,10 +516,14 @@
       <c r="F2" s="5" t="n">
         <v>54804</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -408,11 +541,11 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="8" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -430,12 +563,12 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8" t="n">
-        <v>25</v>
+      <c r="H4" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -452,10 +585,14 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -473,11 +610,11 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -493,11 +630,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -511,11 +648,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -530,139 +667,141 @@
         <v>11</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="165" formatCode="[$-40C]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,6 +187,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -324,7 +339,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -377,9 +392,12 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -519,7 +537,7 @@
       <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -541,7 +559,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -563,7 +581,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="26" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="9"/>
@@ -588,7 +606,7 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -610,7 +628,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -630,7 +648,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -648,7 +666,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -670,7 +688,7 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="26" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/test/resources/data/out/hello.xlsx
+++ b/src/test/resources/data/out/hello.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>author</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Fail: /!\ No value for Â« bakery.BAKERY_DEMO.Input Text field Â» in bakery. /!\</t>
+  </si>
+  <si>
+    <t>SuccÃ¨s</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ Ouverture de la page the page BAKERY. Cette erreur peut provenir d'un proxy qui ne rÃ©pond pas ou de sa mauvaise configuration /!\</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ La donnÃ©e Â« city Â» fournie ne peut pas Ãªtre vide. /!\</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ La donnÃ©e Â« element Â» fournie ne peut pas Ãªtre vide. /!\, /!\ La donnÃ©e Â« element2 Â» fournie ne peut pas Ãªtre vide. /!\.</t>
   </si>
 </sst>
 </file>
@@ -135,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,6 +174,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -217,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -232,6 +274,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -580,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="4" max="7" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,8 +688,8 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>24</v>
+      <c r="H2" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -663,8 +711,8 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="12" t="s">
-        <v>27</v>
+      <c r="H3" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -686,8 +734,8 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
+      <c r="H4" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -711,8 +759,8 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>24</v>
+      <c r="H5" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -734,8 +782,8 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
+      <c r="H6" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -754,8 +802,8 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="12" t="s">
-        <v>30</v>
+      <c r="H7" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,8 +820,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="12" t="s">
-        <v>31</v>
+      <c r="H8" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,8 +842,8 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>32</v>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
